--- a/data/demographics/medication/medication_analysis_combined.xlsx
+++ b/data/demographics/medication/medication_analysis_combined.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Fmri_Forschung\Allerlei\JuliaS\GitHub\SubliminalVideoPriming\data\demographics\medication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juhoffmann\Desktop\SubliminalVideoPriming\data\demographics\medication\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -441,7 +441,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -457,7 +457,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -745,11 +745,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
